--- a/Produktionsförderung/Anlage 2/Anlage_2_Tabellarische Auflistung aller Elemente_Inhalte.xlsx
+++ b/Produktionsförderung/Anlage 2/Anlage_2_Tabellarische Auflistung aller Elemente_Inhalte.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ScrewDriversMFG\Produktionsförderung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ScrewDriversMFG\Produktionsförderung\Anlage 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C976718-99D9-4072-97C1-CDAD1765E807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB95CBF4-DABA-45DD-A587-E686296EC54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="345" windowWidth="43935" windowHeight="23445" xr2:uid="{1BB2656F-CBCC-4985-A9C0-7A9FDA9A4795}"/>
+    <workbookView xWindow="17940" yWindow="7395" windowWidth="37995" windowHeight="21765" xr2:uid="{1BB2656F-CBCC-4985-A9C0-7A9FDA9A4795}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>Kompletter Controller Support für das Spiel</t>
   </si>
   <si>
-    <t>Tabellarische Auflistung geplanter Umsetzungen durch die Förderung:</t>
-  </si>
-  <si>
     <t>Offroad Insel</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Ausbau des Gameflows im Multiplayer. Einfaches Hosting eines eigenen Servers, sowie Spielmodi für verschiedene Arten von Fahrzeugen</t>
+  </si>
+  <si>
+    <t>Teil 2 - b) Tabellarische Auflistung geplanter Umsetzungen durch die Förderung:</t>
   </si>
 </sst>
 </file>
@@ -688,8 +688,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" style="1" customWidth="1"/>
-    <col min="2" max="2" width="77.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="83.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="1" customWidth="1"/>
     <col min="4" max="4" width="134.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="40" style="1" customWidth="1"/>
@@ -698,7 +698,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -720,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -728,15 +728,15 @@
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -747,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -755,23 +755,23 @@
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
